--- a/Input_data/Proteomic data/NP_Database.xlsx
+++ b/Input_data/Proteomic data/NP_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\Proteomic data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC5CAC1-6CC1-42F4-A98B-E15452E6C7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804EB28C-A8FD-4036-8CAF-BE1342B8E014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="26070" yWindow="2550" windowWidth="22335" windowHeight="11055" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>NPID</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Polystyrene</t>
   </si>
   <si>
-    <t>Carboxylate</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -104,6 +101,12 @@
   </si>
   <si>
     <t>40 nm FA</t>
+  </si>
+  <si>
+    <t>Amine</t>
+  </si>
+  <si>
+    <t>BET</t>
   </si>
 </sst>
 </file>
@@ -455,23 +458,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,31 +488,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,217 +528,219 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>230</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>30</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-30</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
         <v>353.9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-30</v>
+        <f>AVERAGE(-19,-26,-28)</f>
+        <v>-24.333333333333332</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
         <v>1421</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>30</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-30</v>
+        <f>AVERAGE(-19,-26,-28)</f>
+        <v>-24.333333333333332</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
         <v>2562</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>30</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-30</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
         <v>2083</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>30</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
